--- a/biology/Botanique/Transparente_de_Croncels/Transparente_de_Croncels.xlsx
+++ b/biology/Botanique/Transparente_de_Croncels/Transparente_de_Croncels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Transparente de Croncels (aussi appelée Pomme de Croncels, Glasapfel) est une variété de pomme diploïde. 
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Obtenue par Charles et Ernest Baltet à Troyes en 1869 (Croncels est un faubourg de Troyes), elle est issue d'un semis de pomme Antonovka[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obtenue par Charles et Ernest Baltet à Troyes en 1869 (Croncels est un faubourg de Troyes), elle est issue d'un semis de pomme Antonovka.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa peau de couleur jaune mat virant au blanc et recouverte de nombreux points gris clair donne une impression de transparence.
 La pomme, de bonne taille, a une chair blanc-jaunâtre, juteuse, peu croquante, à gros grains, légèrement acidulée avec un arôme assez fin.
 Elle peut être utilisée en pomme à couteau dès la récolte mais fait une pomme à cuire idéale. 
 Cueillie trop mûre, elle est farineuse.
-Mûres en août-septembre, de manière échelonnée, suivant les régions, les pommes doivent être entre-cueillies[1].
+Mûres en août-septembre, de manière échelonnée, suivant les régions, les pommes doivent être entre-cueillies.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est très vigoureux, très résistant au froid et aux diverses maladies et parasites (excepté le carpocapse) et très productif (avec une légère alternance). Il pousse bien sur tous types de sols, il est plutôt cultivé en haute tige, en exposition abritée car ses fruits tombent facilement.
 La Transparente de Croncels se récolte de fin août à début novembre mais les fruits récoltés ne mûrissent plus. 
